--- a/PythonResources/Data/Consumption/Sympheny/post_1657_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1657_hea.xlsx
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>50.72268387423502</v>
+        <v>50.72268387423501</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>8.154701650751933</v>
+        <v>8.154701650751932</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.4984317768721232</v>
+        <v>0.4984317768721231</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2.038004280009449</v>
+        <v>2.038004280009448</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>8.171904920721355</v>
+        <v>8.171904920721353</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>15.92334082227528</v>
+        <v>15.92334082227527</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>49.85871045226137</v>
+        <v>49.85871045226136</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>57.81265844153028</v>
+        <v>57.81265844153027</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>21.71720872109075</v>
+        <v>21.71720872109074</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>49.59670494369813</v>
+        <v>49.59670494369812</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>2.344369020984473</v>
+        <v>2.344369020984472</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>49.8918274796301</v>
+        <v>49.89182747963009</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>62.43702636056765</v>
+        <v>62.43702636056764</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>8.748317039560488</v>
+        <v>8.748317039560487</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>4.675098515829647</v>
+        <v>4.675098515829646</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>0.7115999275528393</v>
+        <v>0.7115999275528392</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>25.62343536699235</v>
+        <v>25.62343536699234</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>20.86475299093649</v>
+        <v>20.86475299093648</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>47.52293427413045</v>
+        <v>47.52293427413044</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>12.71808148664388</v>
+        <v>12.71808148664387</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>33.62257491042284</v>
+        <v>33.62257491042283</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>0.7456870200595404</v>
+        <v>0.7456870200595402</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>2.281807146361436</v>
+        <v>2.281807146361435</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>0.780330947539698</v>
+        <v>0.7803309475396979</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>43.04656722961706</v>
+        <v>43.04656722961705</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>62.75530150855387</v>
+        <v>62.75530150855386</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>9.596112940200028</v>
+        <v>9.596112940200026</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>6.857217548390425</v>
+        <v>6.857217548390424</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>52.00662809461037</v>
+        <v>52.00662809461036</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>57.95303946904907</v>
+        <v>57.95303946904906</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>71.58670418757485</v>
+        <v>71.58670418757484</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3343,7 +3343,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>9.215941188848531</v>
+        <v>9.215941188848529</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>47.32423210991806</v>
+        <v>47.32423210991805</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>54.95169896211823</v>
+        <v>54.95169896211822</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>25.46963168590288</v>
+        <v>25.46963168590287</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>92.18461599781018</v>
+        <v>92.18461599781016</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>41.83120163228846</v>
+        <v>41.83120163228845</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>62.23568655700731</v>
+        <v>62.2356865570073</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>74.32809068321308</v>
+        <v>74.32809068321306</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>66.61856394018773</v>
+        <v>66.61856394018771</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>87.97875352198122</v>
+        <v>87.9787535219812</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>94.14320974918397</v>
+        <v>94.14320974918394</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>91.6825853085833</v>
+        <v>91.68258530858328</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>27.43496607116586</v>
+        <v>27.43496607116585</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>73.8055450212799</v>
+        <v>73.80554502127988</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>78.22124636079039</v>
+        <v>78.22124636079037</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>88.7583224848204</v>
+        <v>88.75832248482038</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>31.88319829596776</v>
+        <v>31.88319829596775</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>76.24096535255568</v>
+        <v>76.24096535255566</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4535,7 +4535,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>116.0127567961709</v>
+        <v>116.0127567961708</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>53.8336329496252</v>
+        <v>53.83363294962519</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4751,7 +4751,7 @@
         <v>551</v>
       </c>
       <c r="B551">
-        <v>107.3407847621817</v>
+        <v>107.3407847621816</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>52.01190337330628</v>
+        <v>52.01190337330627</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>59.65988519821274</v>
+        <v>59.65988519821273</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>65.80587794997982</v>
+        <v>65.8058779499798</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4935,7 +4935,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>86.13094062322143</v>
+        <v>86.13094062322142</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>34.72862501033076</v>
+        <v>34.72862501033075</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5135,7 +5135,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>63.06859444888285</v>
+        <v>63.06859444888284</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5151,7 +5151,7 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>79.27512981581658</v>
+        <v>79.27512981581657</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>77.7139403928676</v>
+        <v>77.71394039286758</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>24.17806761852233</v>
+        <v>24.17806761852232</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>31.20180813108013</v>
+        <v>31.20180813108012</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>46.52942345306849</v>
+        <v>46.52942345306848</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5607,7 +5607,7 @@
         <v>658</v>
       </c>
       <c r="B658">
-        <v>35.26846186354496</v>
+        <v>35.26846186354495</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>24.43101723199094</v>
+        <v>24.43101723199093</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5679,7 +5679,7 @@
         <v>667</v>
       </c>
       <c r="B667">
-        <v>85.23472938699504</v>
+        <v>85.23472938699503</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>100.0471258230168</v>
+        <v>100.0471258230167</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5799,7 +5799,7 @@
         <v>682</v>
       </c>
       <c r="B682">
-        <v>25.9825353106641</v>
+        <v>25.98253531066409</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>57.47621288914706</v>
+        <v>57.47621288914705</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>697</v>
       </c>
       <c r="B697">
-        <v>71.37803760804798</v>
+        <v>71.37803760804796</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5927,7 +5927,7 @@
         <v>698</v>
       </c>
       <c r="B698">
-        <v>72.47353715056408</v>
+        <v>72.47353715056407</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>64.67462374074702</v>
+        <v>64.67462374074701</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>25.99305656095204</v>
+        <v>25.99305656095203</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>20.26108526550185</v>
+        <v>20.26108526550184</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6327,7 +6327,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>94.89229932400237</v>
+        <v>94.89229932400234</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>21.91951565907867</v>
+        <v>21.91951565907866</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6607,7 +6607,7 @@
         <v>783</v>
       </c>
       <c r="B783">
-        <v>45.43392391055238</v>
+        <v>45.43392391055237</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>46.71259285223183</v>
+        <v>46.71259285223182</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6935,7 +6935,7 @@
         <v>824</v>
       </c>
       <c r="B824">
-        <v>53.85121721194488</v>
+        <v>53.85121721194487</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>37.96149163780406</v>
+        <v>37.96149163780405</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>119.6172375006668</v>
+        <v>119.6172375006667</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>42.39184652924762</v>
+        <v>42.39184652924761</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>42.26201605912064</v>
+        <v>42.26201605912063</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>33.11057980588147</v>
+        <v>33.11057980588146</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>100.6127529276332</v>
+        <v>100.6127529276331</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>32.95525215539096</v>
+        <v>32.95525215539095</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>28.95427564269014</v>
+        <v>28.95427564269013</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>76.8860147086493</v>
+        <v>76.88601470864928</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>80.03476994802679</v>
+        <v>80.03476994802678</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7479,7 +7479,7 @@
         <v>892</v>
       </c>
       <c r="B892">
-        <v>99.56766160376679</v>
+        <v>99.56766160376678</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>39.95877076628113</v>
+        <v>39.95877076628112</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7623,7 +7623,7 @@
         <v>910</v>
       </c>
       <c r="B910">
-        <v>56.43698298605393</v>
+        <v>56.43698298605392</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>64.25992822104122</v>
+        <v>64.25992822104121</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>79.54065217684376</v>
+        <v>79.54065217684375</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>46.09333374754041</v>
+        <v>46.0933337475404</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>51.25255631213473</v>
+        <v>51.25255631213472</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7879,7 +7879,7 @@
         <v>942</v>
       </c>
       <c r="B942">
-        <v>53.4461930365149</v>
+        <v>53.44619303651489</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>39.60474095157822</v>
+        <v>39.60474095157821</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>40.36379494171111</v>
+        <v>40.3637949417111</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>44.21093846621859</v>
+        <v>44.21093846621858</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>53.40252545175436</v>
+        <v>53.40252545175435</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8079,7 +8079,7 @@
         <v>967</v>
       </c>
       <c r="B967">
-        <v>53.50715181255646</v>
+        <v>53.50715181255645</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>3.507737954633776</v>
+        <v>3.507737954633775</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>38.19067319003723</v>
+        <v>38.19067319003722</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>0.4341642288040768</v>
+        <v>0.4341642288040767</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>0.9659093906408353</v>
+        <v>0.965909390640835</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>62.89040725737675</v>
+        <v>62.89040725737674</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8551,7 +8551,7 @@
         <v>1026</v>
       </c>
       <c r="B1026">
-        <v>29.0353977061916</v>
+        <v>29.03539770619159</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>79.92809208995406</v>
+        <v>79.92809208995405</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>95.67714356553743</v>
+        <v>95.67714356553742</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>61.4760464247971</v>
+        <v>61.47604642479709</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>60.83715156051537</v>
+        <v>60.83715156051536</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>60.75040253307161</v>
+        <v>60.7504025330716</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>3.199984056935497</v>
+        <v>3.199984056935496</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>32.9602343630482</v>
+        <v>32.96023436304819</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9015,7 +9015,7 @@
         <v>1084</v>
       </c>
       <c r="B1084">
-        <v>53.66541017343359</v>
+        <v>53.66541017343358</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>56.05774906202615</v>
+        <v>56.05774906202614</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>20.22887675835297</v>
+        <v>20.22887675835296</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9143,7 +9143,7 @@
         <v>1100</v>
       </c>
       <c r="B1100">
-        <v>52.07286214934784</v>
+        <v>52.07286214934783</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>45.31405785573989</v>
+        <v>45.31405785573988</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>1104</v>
       </c>
       <c r="B1104">
-        <v>55.14278127932543</v>
+        <v>55.14278127932542</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>61.70786561637822</v>
+        <v>61.70786561637821</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>68.07366164714131</v>
+        <v>68.07366164714129</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9311,7 +9311,7 @@
         <v>1121</v>
       </c>
       <c r="B1121">
-        <v>55.06101445953891</v>
+        <v>55.0610144595389</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -9367,7 +9367,7 @@
         <v>1128</v>
       </c>
       <c r="B1128">
-        <v>84.60286822764118</v>
+        <v>84.60286822764117</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>28.91831582624639</v>
+        <v>28.91831582624638</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9487,7 +9487,7 @@
         <v>1143</v>
       </c>
       <c r="B1143">
-        <v>30.31263059978161</v>
+        <v>30.3126305997816</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>49.14332404688903</v>
+        <v>49.14332404688902</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>91.78193639068949</v>
+        <v>91.78193639068948</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>9.374492620764318</v>
+        <v>9.374492620764316</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9879,7 +9879,7 @@
         <v>1192</v>
       </c>
       <c r="B1192">
-        <v>9.635384459380649</v>
+        <v>9.635384459380647</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>70.71511091859601</v>
+        <v>70.715110918596</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9967,7 +9967,7 @@
         <v>1203</v>
       </c>
       <c r="B1203">
-        <v>57.77954141416155</v>
+        <v>57.77954141416154</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
@@ -10007,7 +10007,7 @@
         <v>1208</v>
       </c>
       <c r="B1208">
-        <v>3.388252892171546</v>
+        <v>3.388252892171545</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>1.947917173435338</v>
+        <v>1.947917173435337</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>23.26547371123477</v>
+        <v>23.26547371123476</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>0.6288571812075817</v>
+        <v>0.6288571812075816</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>1.944787174742435</v>
+        <v>1.944787174742434</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>2.578752584153884</v>
+        <v>2.578752584153883</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10479,7 +10479,7 @@
         <v>1267</v>
       </c>
       <c r="B1267">
-        <v>35.70660306634367</v>
+        <v>35.70660306634366</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>0.4097983026497725</v>
+        <v>0.4097983026497724</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>2.769237036442212</v>
+        <v>2.769237036442211</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>2.720115399652184</v>
+        <v>2.720115399652183</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>26.66357379030533</v>
+        <v>26.66357379030532</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>18.02515839024285</v>
+        <v>18.02515839024284</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>26.83255855119746</v>
+        <v>26.83255855119745</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>0.3528458077067133</v>
+        <v>0.3528458077067132</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11087,7 +11087,7 @@
         <v>1343</v>
       </c>
       <c r="B1343">
-        <v>0.7977921200231409</v>
+        <v>0.7977921200231408</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -11191,7 +11191,7 @@
         <v>1356</v>
       </c>
       <c r="B1356">
-        <v>0.3948809867819101</v>
+        <v>0.39488098678191</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>7.550184019305176</v>
+        <v>7.550184019305175</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>9.971683476244545</v>
+        <v>9.971683476244539</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>6.715693543820862</v>
+        <v>6.715693543820861</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11751,7 +11751,7 @@
         <v>1426</v>
       </c>
       <c r="B1426">
-        <v>7.539311083770841</v>
+        <v>7.53931108377084</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
@@ -11799,7 +11799,7 @@
         <v>1432</v>
       </c>
       <c r="B1432">
-        <v>7.596137558167275</v>
+        <v>7.596137558167274</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>52.09835932971137</v>
+        <v>52.09835932971136</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>59.14495938328476</v>
+        <v>59.14495938328475</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>68.41010719952453</v>
+        <v>68.41010719952452</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>75.2301633402127</v>
+        <v>75.23016334021268</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11935,7 +11935,7 @@
         <v>1449</v>
       </c>
       <c r="B1449">
-        <v>10.33049034887763</v>
+        <v>10.33049034887762</v>
       </c>
     </row>
     <row r="1450" spans="1:2">
@@ -11951,7 +11951,7 @@
         <v>1451</v>
       </c>
       <c r="B1451">
-        <v>14.63004763576663</v>
+        <v>14.63004763576662</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>85.00818547410982</v>
+        <v>85.00818547410981</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>49.99674691147087</v>
+        <v>49.99674691147086</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>50.07323845256148</v>
+        <v>50.07323845256147</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>64.17581683294542</v>
+        <v>64.1758168329454</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1523</v>
       </c>
       <c r="B1523">
-        <v>3.375738758820706</v>
+        <v>3.375738758820705</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>64.66729696478049</v>
+        <v>64.66729696478048</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>31.16370889605416</v>
+        <v>31.16370889605415</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12999,7 +12999,7 @@
         <v>1582</v>
       </c>
       <c r="B1582">
-        <v>0.7735258380219816</v>
+        <v>0.7735258380219815</v>
       </c>
     </row>
     <row r="1583" spans="1:2">
@@ -13023,7 +13023,7 @@
         <v>1585</v>
       </c>
       <c r="B1585">
-        <v>3.482944144763026</v>
+        <v>3.482944144763025</v>
       </c>
     </row>
     <row r="1586" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>63.20838933432431</v>
+        <v>63.2083893343243</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13207,7 +13207,7 @@
         <v>1608</v>
       </c>
       <c r="B1608">
-        <v>78.15501230605292</v>
+        <v>78.15501230605291</v>
       </c>
     </row>
     <row r="1609" spans="1:2">
@@ -13215,7 +13215,7 @@
         <v>1609</v>
       </c>
       <c r="B1609">
-        <v>83.6345615159041</v>
+        <v>83.63456151590408</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>90.5665707933609</v>
+        <v>90.56657079336088</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13359,7 +13359,7 @@
         <v>1627</v>
       </c>
       <c r="B1627">
-        <v>50.94453865050166</v>
+        <v>50.94453865050165</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>48.24388902923736</v>
+        <v>48.24388902923735</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13375,7 +13375,7 @@
         <v>1629</v>
       </c>
       <c r="B1629">
-        <v>46.91891486344942</v>
+        <v>46.91891486344941</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>57.41759868141479</v>
+        <v>57.41759868141478</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>69.40830715720507</v>
+        <v>69.40830715720506</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13423,7 +13423,7 @@
         <v>1635</v>
       </c>
       <c r="B1635">
-        <v>84.36108462074557</v>
+        <v>84.36108462074556</v>
       </c>
     </row>
     <row r="1636" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>83.37490057565014</v>
+        <v>83.37490057565013</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>84.87776886190552</v>
+        <v>84.87776886190551</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13495,7 +13495,7 @@
         <v>1644</v>
       </c>
       <c r="B1644">
-        <v>7.41323192293873</v>
+        <v>7.413231922938729</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -13551,7 +13551,7 @@
         <v>1651</v>
       </c>
       <c r="B1651">
-        <v>38.62881439283594</v>
+        <v>38.62881439283593</v>
       </c>
     </row>
     <row r="1652" spans="1:2">
@@ -13631,7 +13631,7 @@
         <v>1661</v>
       </c>
       <c r="B1661">
-        <v>70.98268477689382</v>
+        <v>70.98268477689381</v>
       </c>
     </row>
     <row r="1662" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>35.98970968969053</v>
+        <v>35.98970968969052</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>51.28303570015551</v>
+        <v>51.2830357001555</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>6.806193880559485</v>
+        <v>6.806193880559484</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>6.68621059733153</v>
+        <v>6.686210597331529</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>0.3396927794915921</v>
+        <v>0.339692779491592</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>7.035639196727452</v>
+        <v>7.035639196727451</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>19.8655565917245</v>
+        <v>19.86555659172449</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>4.670350765003333</v>
+        <v>4.670350765003332</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>3.26706801768508</v>
+        <v>3.267068017685079</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>0.8404251640172069</v>
+        <v>0.8404251640172068</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>30.27951357241288</v>
+        <v>30.27951357241287</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>7.751172137619126</v>
+        <v>7.751172137619125</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>7.046863817508182</v>
+        <v>7.046863817508181</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14863,7 +14863,7 @@
         <v>1815</v>
       </c>
       <c r="B1815">
-        <v>5.0944245579463</v>
+        <v>5.094424557946299</v>
       </c>
     </row>
     <row r="1816" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>4.03661395100204</v>
+        <v>4.036613951002039</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>34.25971134847261</v>
+        <v>34.2597113484726</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>0.7131180355331052</v>
+        <v>0.713118035533105</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>26.53948751253612</v>
+        <v>26.53948751253611</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15167,7 +15167,7 @@
         <v>1853</v>
       </c>
       <c r="B1853">
-        <v>44.33842436803627</v>
+        <v>44.33842436803626</v>
       </c>
     </row>
     <row r="1854" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>2.937802705749058</v>
+        <v>2.937802705749057</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>28.49520916773101</v>
+        <v>28.495209167731</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>38.23404770375911</v>
+        <v>38.2340477037591</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>0.4030605994709482</v>
+        <v>0.4030605994709481</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>38.39699520125482</v>
+        <v>38.39699520125481</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15719,7 +15719,7 @@
         <v>1922</v>
       </c>
       <c r="B1922">
-        <v>44.18514821481639</v>
+        <v>44.18514821481638</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>4.537267206347216</v>
+        <v>4.537267206347215</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>7.044489942095025</v>
+        <v>7.044489942095024</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>5.22709781714829</v>
+        <v>5.227097817148289</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>6.33229801104409</v>
+        <v>6.332298011044089</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -16047,7 +16047,7 @@
         <v>1963</v>
       </c>
       <c r="B1963">
-        <v>50.61835058447158</v>
+        <v>50.61835058447157</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>39.5382138258021</v>
+        <v>39.53821382580209</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16071,7 +16071,7 @@
         <v>1966</v>
       </c>
       <c r="B1966">
-        <v>39.87231480987603</v>
+        <v>39.87231480987602</v>
       </c>
     </row>
     <row r="1967" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>46.19825317938117</v>
+        <v>46.19825317938116</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16215,7 +16215,7 @@
         <v>1984</v>
       </c>
       <c r="B1984">
-        <v>5.600030713844852</v>
+        <v>5.600030713844851</v>
       </c>
     </row>
     <row r="1985" spans="1:2">
@@ -16231,7 +16231,7 @@
         <v>1986</v>
       </c>
       <c r="B1986">
-        <v>49.82090428827406</v>
+        <v>49.82090428827405</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16295,7 +16295,7 @@
         <v>1994</v>
       </c>
       <c r="B1994">
-        <v>50.84987670501404</v>
+        <v>50.84987670501403</v>
       </c>
     </row>
     <row r="1995" spans="1:2">
@@ -16343,7 +16343,7 @@
         <v>2000</v>
       </c>
       <c r="B2000">
-        <v>2.703981838973877</v>
+        <v>2.703981838973876</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>4.828257440634066</v>
+        <v>4.828257440634065</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>9.47516252254449</v>
+        <v>9.475162522544489</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>44.70769387674957</v>
+        <v>44.70769387674956</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>32.29789381567356</v>
+        <v>32.29789381567355</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16807,7 +16807,7 @@
         <v>2058</v>
       </c>
       <c r="B2058">
-        <v>63.88128043909076</v>
+        <v>63.88128043909075</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>36.39971607277775</v>
+        <v>36.39971607277774</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -16855,7 +16855,7 @@
         <v>2064</v>
       </c>
       <c r="B2064">
-        <v>47.36995119194923</v>
+        <v>47.36995119194922</v>
       </c>
     </row>
     <row r="2065" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>51.08433353594312</v>
+        <v>51.08433353594311</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>35.12339169940759</v>
+        <v>35.12339169940758</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>41.22747529264609</v>
+        <v>41.22747529264608</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17319,7 +17319,7 @@
         <v>2122</v>
       </c>
       <c r="B2122">
-        <v>0.7981994887668803</v>
+        <v>0.7981994887668802</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>2.364347673690017</v>
+        <v>2.364347673690016</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17551,7 +17551,7 @@
         <v>2151</v>
       </c>
       <c r="B2151">
-        <v>1.44554359109322</v>
+        <v>1.445543591093219</v>
       </c>
     </row>
     <row r="2152" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>23.38935483927692</v>
+        <v>23.38935483927691</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17607,7 +17607,7 @@
         <v>2158</v>
       </c>
       <c r="B2158">
-        <v>20.50052430408817</v>
+        <v>20.50052430408816</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>9.879600555897149</v>
+        <v>9.879600555897143</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -18047,7 +18047,7 @@
         <v>2213</v>
       </c>
       <c r="B2213">
-        <v>27.05066201816924</v>
+        <v>27.05066201816923</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>4.003496923633308</v>
+        <v>4.003496923633307</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18551,7 +18551,7 @@
         <v>2276</v>
       </c>
       <c r="B2276">
-        <v>0.1776766617567499</v>
+        <v>0.1776766617567498</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>0.8115342210259715</v>
+        <v>0.8115342210259714</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>5.046947049683162</v>
+        <v>5.046947049683161</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>22.16677969439725</v>
+        <v>22.16677969439724</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>2.722410145884902</v>
+        <v>2.722410145884901</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>5.245444064168491</v>
+        <v>5.24544406416849</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>41.15098375155548</v>
+        <v>41.15098375155547</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>0.270561424465922</v>
+        <v>0.2705614244659219</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19759,7 +19759,7 @@
         <v>2427</v>
       </c>
       <c r="B2427">
-        <v>33.67386234218858</v>
+        <v>33.67386234218857</v>
       </c>
     </row>
     <row r="2428" spans="1:2">
@@ -19911,7 +19911,7 @@
         <v>2446</v>
       </c>
       <c r="B2446">
-        <v>0.7281848176306849</v>
+        <v>0.7281848176306848</v>
       </c>
     </row>
     <row r="2447" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>5.427499793384919</v>
+        <v>5.427499793384918</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>4.773541077715993</v>
+        <v>4.773541077715992</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20079,7 +20079,7 @@
         <v>2467</v>
       </c>
       <c r="B2467">
-        <v>0.0309647136608031</v>
+        <v>0.030964713660803</v>
       </c>
     </row>
     <row r="2468" spans="1:2">
@@ -20103,7 +20103,7 @@
         <v>2470</v>
       </c>
       <c r="B2470">
-        <v>2.804613641519023</v>
+        <v>2.804613641519022</v>
       </c>
     </row>
     <row r="2471" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>36.12979764617065</v>
+        <v>36.12979764617064</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>22.66845869837774</v>
+        <v>22.66845869837773</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20367,7 +20367,7 @@
         <v>2503</v>
       </c>
       <c r="B2503">
-        <v>0.2409093759872831</v>
+        <v>0.240909375987283</v>
       </c>
     </row>
     <row r="2504" spans="1:2">
@@ -20383,7 +20383,7 @@
         <v>2505</v>
       </c>
       <c r="B2505">
-        <v>0.3435056337045762</v>
+        <v>0.3435056337045761</v>
       </c>
     </row>
     <row r="2506" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>0.2409820576048711</v>
+        <v>0.240982057604871</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20695,7 +20695,7 @@
         <v>2544</v>
       </c>
       <c r="B2544">
-        <v>3.151011886375187</v>
+        <v>3.151011886375186</v>
       </c>
     </row>
     <row r="2545" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>0.2236129094275678</v>
+        <v>0.2236129094275677</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>0.426937096990688</v>
+        <v>0.4269370969906879</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20855,7 +20855,7 @@
         <v>2564</v>
       </c>
       <c r="B2564">
-        <v>9.747689281395676</v>
+        <v>9.747689281395674</v>
       </c>
     </row>
     <row r="2565" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>11.33727728799095</v>
+        <v>11.33727728799094</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>37.17928503561693</v>
+        <v>37.17928503561692</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20919,7 +20919,7 @@
         <v>2572</v>
       </c>
       <c r="B2572">
-        <v>48.13955573947392</v>
+        <v>48.13955573947391</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -20927,7 +20927,7 @@
         <v>2573</v>
       </c>
       <c r="B2573">
-        <v>47.46138935601157</v>
+        <v>47.46138935601156</v>
       </c>
     </row>
     <row r="2574" spans="1:2">
@@ -20935,7 +20935,7 @@
         <v>2574</v>
       </c>
       <c r="B2574">
-        <v>43.1509005193805</v>
+        <v>43.15090051938049</v>
       </c>
     </row>
     <row r="2575" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>3.201889018686796</v>
+        <v>3.201889018686795</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -20983,7 +20983,7 @@
         <v>2580</v>
       </c>
       <c r="B2580">
-        <v>2.487610421840592</v>
+        <v>2.487610421840591</v>
       </c>
     </row>
     <row r="2581" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>0.6698812651993968</v>
+        <v>0.6698812651993967</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>39.75244875506354</v>
+        <v>39.75244875506353</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>1.717577990599454</v>
+        <v>1.717577990599453</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21239,7 +21239,7 @@
         <v>2612</v>
       </c>
       <c r="B2612">
-        <v>0.8531210014120163</v>
+        <v>0.8531210014120162</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>9.710000345823827</v>
+        <v>9.710000345823826</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21311,7 +21311,7 @@
         <v>2621</v>
       </c>
       <c r="B2621">
-        <v>30.95211160614066</v>
+        <v>30.95211160614065</v>
       </c>
     </row>
     <row r="2622" spans="1:2">
@@ -21447,7 +21447,7 @@
         <v>2638</v>
       </c>
       <c r="B2638">
-        <v>2.14187744824219</v>
+        <v>2.141877448242189</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>9.206973215065494</v>
+        <v>9.206973215065492</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>26.87552276546522</v>
+        <v>26.87552276546521</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21551,7 +21551,7 @@
         <v>2651</v>
       </c>
       <c r="B2651">
-        <v>0.6888927834773583</v>
+        <v>0.6888927834773582</v>
       </c>
     </row>
     <row r="2652" spans="1:2">
@@ -21559,7 +21559,7 @@
         <v>2652</v>
       </c>
       <c r="B2652">
-        <v>0.4924853654976845</v>
+        <v>0.4924853654976844</v>
       </c>
     </row>
     <row r="2653" spans="1:2">
@@ -21599,7 +21599,7 @@
         <v>2657</v>
       </c>
       <c r="B2657">
-        <v>0.844070967738154</v>
+        <v>0.8440709677381539</v>
       </c>
     </row>
     <row r="2658" spans="1:2">
@@ -21687,7 +21687,7 @@
         <v>2668</v>
       </c>
       <c r="B2668">
-        <v>34.550144747786</v>
+        <v>34.55014474778599</v>
       </c>
     </row>
     <row r="2669" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>1.552066121515459</v>
+        <v>1.552066121515458</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21903,7 +21903,7 @@
         <v>2695</v>
       </c>
       <c r="B2695">
-        <v>0.2476039977234242</v>
+        <v>0.2476039977234241</v>
       </c>
     </row>
     <row r="2696" spans="1:2">
@@ -22007,7 +22007,7 @@
         <v>2708</v>
       </c>
       <c r="B2708">
-        <v>20.07533684119829</v>
+        <v>20.07533684119828</v>
       </c>
     </row>
     <row r="2709" spans="1:2">
@@ -22031,7 +22031,7 @@
         <v>2711</v>
       </c>
       <c r="B2711">
-        <v>30.94331947498082</v>
+        <v>30.94331947498081</v>
       </c>
     </row>
     <row r="2712" spans="1:2">
@@ -22039,7 +22039,7 @@
         <v>2712</v>
       </c>
       <c r="B2712">
-        <v>35.3727951533084</v>
+        <v>35.37279515330839</v>
       </c>
     </row>
     <row r="2713" spans="1:2">
@@ -22111,7 +22111,7 @@
         <v>2721</v>
       </c>
       <c r="B2721">
-        <v>2.460331369561994</v>
+        <v>2.460331369561993</v>
       </c>
     </row>
     <row r="2722" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>9.642828463762646</v>
+        <v>9.642828463762644</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>0.962635787138988</v>
+        <v>0.9626357871389878</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22791,7 +22791,7 @@
         <v>2806</v>
       </c>
       <c r="B2806">
-        <v>2.599754054784356</v>
+        <v>2.599754054784355</v>
       </c>
     </row>
     <row r="2807" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>0.9350109110347694</v>
+        <v>0.9350109110347692</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -24151,7 +24151,7 @@
         <v>2976</v>
       </c>
       <c r="B2976">
-        <v>6.105050727666082</v>
+        <v>6.105050727666081</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -24575,7 +24575,7 @@
         <v>3029</v>
       </c>
       <c r="B3029">
-        <v>0.7582363219350192</v>
+        <v>0.7582363219350191</v>
       </c>
     </row>
     <row r="3030" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>0.3785745141907928</v>
+        <v>0.3785745141907927</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>0.813099220372423</v>
+        <v>0.8130992203724229</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>0.7472051280398062</v>
+        <v>0.7472051280398061</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -25911,7 +25911,7 @@
         <v>3196</v>
       </c>
       <c r="B3196">
-        <v>2.950228917788299</v>
+        <v>2.950228917788298</v>
       </c>
     </row>
     <row r="3197" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>7.554257706742569</v>
+        <v>7.554257706742568</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26831,7 +26831,7 @@
         <v>3311</v>
       </c>
       <c r="B3311">
-        <v>6.864251253318297</v>
+        <v>6.864251253318296</v>
       </c>
     </row>
     <row r="3312" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>0.2154722751866716</v>
+        <v>0.2154722751866715</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>0.5756413420074546</v>
+        <v>0.5756413420074545</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27231,7 +27231,7 @@
         <v>3361</v>
       </c>
       <c r="B3361">
-        <v>14.74786219330849</v>
+        <v>14.74786219330848</v>
       </c>
     </row>
     <row r="3362" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>4.41274132202001</v>
+        <v>4.412741322020009</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>13.01762939525964</v>
+        <v>13.01762939525963</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -29751,7 +29751,7 @@
         <v>3676</v>
       </c>
       <c r="B3676">
-        <v>4.36649471211925</v>
+        <v>4.366494712119249</v>
       </c>
     </row>
     <row r="3677" spans="1:2">
@@ -29959,7 +29959,7 @@
         <v>3702</v>
       </c>
       <c r="B3702">
-        <v>0.7456870200595404</v>
+        <v>0.7456870200595402</v>
       </c>
     </row>
     <row r="3703" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>0.2552519795483307</v>
+        <v>0.2552519795483306</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -45695,7 +45695,7 @@
         <v>5669</v>
       </c>
       <c r="B5669">
-        <v>0.1727287434110304</v>
+        <v>0.1727287434110303</v>
       </c>
     </row>
     <row r="5670" spans="1:2">
@@ -47783,7 +47783,7 @@
         <v>5930</v>
       </c>
       <c r="B5930">
-        <v>2.388739976237801</v>
+        <v>2.3887399762378</v>
       </c>
     </row>
     <row r="5931" spans="1:2">
@@ -47983,7 +47983,7 @@
         <v>5955</v>
       </c>
       <c r="B5955">
-        <v>0.3391711130427749</v>
+        <v>0.3391711130427748</v>
       </c>
     </row>
     <row r="5956" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>0.769830212224462</v>
+        <v>0.7698302122244619</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>3.78436770802622</v>
+        <v>3.784367708026219</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>2.427665671592801</v>
+        <v>2.4276656715928</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>1.301323332967972</v>
+        <v>1.301323332967971</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51799,7 +51799,7 @@
         <v>6432</v>
       </c>
       <c r="B6432">
-        <v>0.4788106708337461</v>
+        <v>0.478810670833746</v>
       </c>
     </row>
     <row r="6433" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>6.339624787010624</v>
+        <v>6.339624787010623</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>4.20090957527559</v>
+        <v>4.200909575275589</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>0.4521822362609763</v>
+        <v>0.4521822362609762</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>7.590041680563119</v>
+        <v>7.590041680563118</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>25.47953748700963</v>
+        <v>25.47953748700962</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -54295,7 +54295,7 @@
         <v>6744</v>
       </c>
       <c r="B6744">
-        <v>25.98669691941309</v>
+        <v>25.98669691941308</v>
       </c>
     </row>
     <row r="6745" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>31.66808415359033</v>
+        <v>31.66808415359032</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54319,7 +54319,7 @@
         <v>6747</v>
       </c>
       <c r="B6747">
-        <v>38.57811310314753</v>
+        <v>38.57811310314752</v>
       </c>
     </row>
     <row r="6748" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>0.2827736946469403</v>
+        <v>0.2827736946469402</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -55279,7 +55279,7 @@
         <v>6867</v>
       </c>
       <c r="B6867">
-        <v>0.1695336829475444</v>
+        <v>0.1695336829475443</v>
       </c>
     </row>
     <row r="6868" spans="1:2">
@@ -55295,7 +55295,7 @@
         <v>6869</v>
       </c>
       <c r="B6869">
-        <v>0.5491828886371084</v>
+        <v>0.5491828886371083</v>
       </c>
     </row>
     <row r="6870" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>0.5769132703152449</v>
+        <v>0.5769132703152448</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>3.480042741480279</v>
+        <v>3.480042741480278</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>4.887164719404996</v>
+        <v>4.887164719404995</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55663,7 +55663,7 @@
         <v>6915</v>
       </c>
       <c r="B6915">
-        <v>6.101416646786682</v>
+        <v>6.101416646786681</v>
       </c>
     </row>
     <row r="6916" spans="1:2">
@@ -55671,7 +55671,7 @@
         <v>6916</v>
       </c>
       <c r="B6916">
-        <v>6.831691060923022</v>
+        <v>6.831691060923021</v>
       </c>
     </row>
     <row r="6917" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>7.209957850523221</v>
+        <v>7.20995785052322</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -55863,7 +55863,7 @@
         <v>6940</v>
       </c>
       <c r="B6940">
-        <v>18.39096966069994</v>
+        <v>18.39096966069993</v>
       </c>
     </row>
     <row r="6941" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>0.8397540313386724</v>
+        <v>0.8397540313386723</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>11.41834073728468</v>
+        <v>11.41834073728467</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>31.50249901674667</v>
+        <v>31.50249901674666</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>0.3285091886562752</v>
+        <v>0.3285091886562751</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56383,7 +56383,7 @@
         <v>7005</v>
       </c>
       <c r="B7005">
-        <v>0.3577019948173318</v>
+        <v>0.3577019948173317</v>
       </c>
     </row>
     <row r="7006" spans="1:2">
@@ -56415,7 +56415,7 @@
         <v>7009</v>
       </c>
       <c r="B7009">
-        <v>8.647617830676451</v>
+        <v>8.647617830676449</v>
       </c>
     </row>
     <row r="7010" spans="1:2">
@@ -56631,7 +56631,7 @@
         <v>7036</v>
       </c>
       <c r="B7036">
-        <v>7.445792115334003</v>
+        <v>7.445792115334004</v>
       </c>
     </row>
     <row r="7037" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>2.213199216210815</v>
+        <v>2.213199216210814</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>0.3800047008594602</v>
+        <v>0.3800047008594601</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57031,7 +57031,7 @@
         <v>7086</v>
       </c>
       <c r="B7086">
-        <v>2.942609070783104</v>
+        <v>2.942609070783103</v>
       </c>
     </row>
     <row r="7087" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>48.65125777297663</v>
+        <v>48.65125777297662</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>0.7943368124773237</v>
+        <v>0.7943368124773236</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58247,7 +58247,7 @@
         <v>7238</v>
       </c>
       <c r="B7238">
-        <v>0.1002264852986775</v>
+        <v>0.1002264852986774</v>
       </c>
     </row>
     <row r="7239" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>8.996782666137577</v>
+        <v>8.996782666137575</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>0.7175346160857315</v>
+        <v>0.7175346160857314</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>21.57697422909129</v>
+        <v>21.57697422909128</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58559,7 +58559,7 @@
         <v>7277</v>
       </c>
       <c r="B7277">
-        <v>24.39318176089976</v>
+        <v>24.39318176089975</v>
       </c>
     </row>
     <row r="7278" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>0.9400517328997446</v>
+        <v>0.9400517328997444</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>0.9971361098102014</v>
+        <v>0.9971361098102012</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58871,7 +58871,7 @@
         <v>7316</v>
       </c>
       <c r="B7316">
-        <v>2.296742046491618</v>
+        <v>2.296742046491617</v>
       </c>
     </row>
     <row r="7317" spans="1:2">
@@ -58879,7 +58879,7 @@
         <v>7317</v>
       </c>
       <c r="B7317">
-        <v>3.614884726368364</v>
+        <v>3.614884726368363</v>
       </c>
     </row>
     <row r="7318" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>2.132566581343919</v>
+        <v>2.132566581343918</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59143,7 +59143,7 @@
         <v>7350</v>
       </c>
       <c r="B7350">
-        <v>32.47871864652761</v>
+        <v>32.4787186465276</v>
       </c>
     </row>
     <row r="7351" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>0.9331293949665636</v>
+        <v>0.9331293949665634</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>7.817582034979788</v>
+        <v>7.817582034979787</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>1.868008424033936</v>
+        <v>1.868008424033935</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>1.303392414500921</v>
+        <v>1.30339241450092</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>0.5275601074046743</v>
+        <v>0.5275601074046742</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -60215,7 +60215,7 @@
         <v>7484</v>
       </c>
       <c r="B7484">
-        <v>3.164581075465207</v>
+        <v>3.164581075465206</v>
       </c>
     </row>
     <row r="7485" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>0.8454044409640631</v>
+        <v>0.845404440964063</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60439,7 +60439,7 @@
         <v>7512</v>
       </c>
       <c r="B7512">
-        <v>1.555032000426712</v>
+        <v>1.555032000426711</v>
       </c>
     </row>
     <row r="7513" spans="1:2">
@@ -60607,7 +60607,7 @@
         <v>7533</v>
       </c>
       <c r="B7533">
-        <v>4.432113317675525</v>
+        <v>4.432113317675524</v>
       </c>
     </row>
     <row r="7534" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>8.068187080139104</v>
+        <v>8.068187080139102</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60783,7 +60783,7 @@
         <v>7555</v>
       </c>
       <c r="B7555">
-        <v>7.207789124837126</v>
+        <v>7.207789124837125</v>
       </c>
     </row>
     <row r="7556" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>0.1035176730628444</v>
+        <v>0.1035176730628443</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>12.87888956555736</v>
+        <v>12.87888956555735</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61015,7 +61015,7 @@
         <v>7584</v>
       </c>
       <c r="B7584">
-        <v>27.43988966461537</v>
+        <v>27.43988966461536</v>
       </c>
     </row>
     <row r="7585" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>25.34768482671589</v>
+        <v>25.34768482671588</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>3.38306553478724</v>
+        <v>3.383065534787239</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61311,7 +61311,7 @@
         <v>7621</v>
       </c>
       <c r="B7621">
-        <v>4.524840994307975</v>
+        <v>4.524840994307974</v>
       </c>
     </row>
     <row r="7622" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>1.861045056155342</v>
+        <v>1.861045056155341</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61391,7 +61391,7 @@
         <v>7631</v>
       </c>
       <c r="B7631">
-        <v>34.71045460593376</v>
+        <v>34.71045460593375</v>
       </c>
     </row>
     <row r="7632" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>41.416213041544</v>
+        <v>41.41621304154399</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>53.38757882878263</v>
+        <v>53.38757882878262</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>46.94470511485162</v>
+        <v>46.94470511485161</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>25.25686211183474</v>
+        <v>25.25686211183473</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61799,7 +61799,7 @@
         <v>7682</v>
       </c>
       <c r="B7682">
-        <v>36.08642313244877</v>
+        <v>36.08642313244876</v>
       </c>
     </row>
     <row r="7683" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>44.84748876219103</v>
+        <v>44.84748876219102</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -61871,7 +61871,7 @@
         <v>7691</v>
       </c>
       <c r="B7691">
-        <v>0.6665988695663898</v>
+        <v>0.6665988695663897</v>
       </c>
     </row>
     <row r="7692" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>0.0229147849063726</v>
+        <v>0.0229147849063725</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>51.38502442160966</v>
+        <v>51.38502442160965</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>51.06381856323682</v>
+        <v>51.06381856323681</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>59.34366154749715</v>
+        <v>59.34366154749714</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>29.38916375695971</v>
+        <v>29.3891637569597</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62367,7 +62367,7 @@
         <v>7753</v>
       </c>
       <c r="B7753">
-        <v>76.64423110175369</v>
+        <v>76.64423110175368</v>
       </c>
     </row>
     <row r="7754" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>80.9262920476346</v>
+        <v>80.92629204763459</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62527,7 +62527,7 @@
         <v>7773</v>
       </c>
       <c r="B7773">
-        <v>53.1452090798097</v>
+        <v>53.14520907980969</v>
       </c>
     </row>
     <row r="7774" spans="1:2">
@@ -62535,7 +62535,7 @@
         <v>7774</v>
       </c>
       <c r="B7774">
-        <v>52.98724378997123</v>
+        <v>52.98724378997122</v>
       </c>
     </row>
     <row r="7775" spans="1:2">
@@ -62543,7 +62543,7 @@
         <v>7775</v>
       </c>
       <c r="B7775">
-        <v>56.11607019871976</v>
+        <v>56.11607019871975</v>
       </c>
     </row>
     <row r="7776" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>65.2707302333842</v>
+        <v>65.27073023338419</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>77.82325589028828</v>
+        <v>77.82325589028827</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>22.00597161548377</v>
+        <v>22.00597161548376</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>77.08471687286169</v>
+        <v>77.08471687286168</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>95.02799121490256</v>
+        <v>95.02799121490254</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63191,7 +63191,7 @@
         <v>7856</v>
       </c>
       <c r="B7856">
-        <v>34.20373478008829</v>
+        <v>34.20373478008828</v>
       </c>
     </row>
     <row r="7857" spans="1:2">
@@ -63207,7 +63207,7 @@
         <v>7858</v>
       </c>
       <c r="B7858">
-        <v>16.49781867225925</v>
+        <v>16.49781867225924</v>
       </c>
     </row>
     <row r="7859" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>7.886746800103865</v>
+        <v>7.886746800103864</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63311,7 +63311,7 @@
         <v>7871</v>
       </c>
       <c r="B7871">
-        <v>60.98749700334864</v>
+        <v>60.98749700334863</v>
       </c>
     </row>
     <row r="7872" spans="1:2">
@@ -63351,7 +63351,7 @@
         <v>7876</v>
       </c>
       <c r="B7876">
-        <v>76.3992237134328</v>
+        <v>76.39922371343279</v>
       </c>
     </row>
     <row r="7877" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>49.50497370859713</v>
+        <v>49.50497370859712</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>3.262877101832222</v>
+        <v>3.262877101832221</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>23.42080136172528</v>
+        <v>23.42080136172527</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>0.5122119771099797</v>
+        <v>0.5122119771099796</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63815,7 +63815,7 @@
         <v>7934</v>
       </c>
       <c r="B7934">
-        <v>0.3721650505752692</v>
+        <v>0.3721650505752691</v>
       </c>
     </row>
     <row r="7935" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>48.17472426411328</v>
+        <v>48.17472426411327</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>42.74323870460257</v>
+        <v>42.74323870460256</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>61.44351553950569</v>
+        <v>61.44351553950568</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>62.07742819613018</v>
+        <v>62.07742819613017</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64167,7 +64167,7 @@
         <v>7978</v>
       </c>
       <c r="B7978">
-        <v>6.294902146510902</v>
+        <v>6.294902146510901</v>
       </c>
     </row>
     <row r="7979" spans="1:2">
@@ -64263,7 +64263,7 @@
         <v>7990</v>
       </c>
       <c r="B7990">
-        <v>32.22169534562161</v>
+        <v>32.2216953456216</v>
       </c>
     </row>
     <row r="7991" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>53.41571364849412</v>
+        <v>53.41571364849411</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64423,7 +64423,7 @@
         <v>8010</v>
       </c>
       <c r="B8010">
-        <v>15.20921462236918</v>
+        <v>15.20921462236917</v>
       </c>
     </row>
     <row r="8011" spans="1:2">
@@ -64487,7 +64487,7 @@
         <v>8018</v>
       </c>
       <c r="B8018">
-        <v>37.43894597587088</v>
+        <v>37.43894597587087</v>
       </c>
     </row>
     <row r="8019" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>4.942555145711991</v>
+        <v>4.94255514571199</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>25.41837356124101</v>
+        <v>25.418373561241</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64751,7 +64751,7 @@
         <v>8051</v>
       </c>
       <c r="B8051">
-        <v>0.6160441153973077</v>
+        <v>0.6160441153973076</v>
       </c>
     </row>
     <row r="8052" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>0.2074060809895954</v>
+        <v>0.2074060809895953</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>24.77757373520798</v>
+        <v>24.77757373520797</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>0.8864871391636105</v>
+        <v>0.8864871391636104</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>2.578145927103855</v>
+        <v>2.578145927103854</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65039,7 +65039,7 @@
         <v>8087</v>
       </c>
       <c r="B8087">
-        <v>0.9933144634660576</v>
+        <v>0.9933144634660572</v>
       </c>
     </row>
     <row r="8088" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>3.349948507418508</v>
+        <v>3.349948507418507</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>6.42517222319587</v>
+        <v>6.425172223195869</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>0.2529997286162182</v>
+        <v>0.2529997286162181</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>0.8204758184155291</v>
+        <v>0.820475818415529</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>25.35712171416079</v>
+        <v>25.35712171416078</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66039,7 +66039,7 @@
         <v>8212</v>
       </c>
       <c r="B8212">
-        <v>32.47373643887037</v>
+        <v>32.47373643887036</v>
       </c>
     </row>
     <row r="8213" spans="1:2">
@@ -66055,7 +66055,7 @@
         <v>8214</v>
       </c>
       <c r="B8214">
-        <v>36.78422527550144</v>
+        <v>36.78422527550143</v>
       </c>
     </row>
     <row r="8215" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>35.61750947059062</v>
+        <v>35.61750947059061</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>41.29898462607946</v>
+        <v>41.29898462607945</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66287,7 +66287,7 @@
         <v>8243</v>
       </c>
       <c r="B8243">
-        <v>4.696141016405531</v>
+        <v>4.69614101640553</v>
       </c>
     </row>
     <row r="8244" spans="1:2">
@@ -66415,7 +66415,7 @@
         <v>8259</v>
       </c>
       <c r="B8259">
-        <v>36.47356997452041</v>
+        <v>36.4735699745204</v>
       </c>
     </row>
     <row r="8260" spans="1:2">
@@ -66543,7 +66543,7 @@
         <v>8275</v>
       </c>
       <c r="B8275">
-        <v>41.71426628786259</v>
+        <v>41.71426628786258</v>
       </c>
     </row>
     <row r="8276" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>60.48253560373514</v>
+        <v>60.48253560373513</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>49.1102070195203</v>
+        <v>49.11020701952029</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>43.34960268359289</v>
+        <v>43.34960268359288</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>54.69702022952152</v>
+        <v>54.69702022952151</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>56.54395391516532</v>
+        <v>56.54395391516531</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>61.47370185648781</v>
+        <v>61.4737018564878</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67039,7 +67039,7 @@
         <v>8337</v>
       </c>
       <c r="B8337">
-        <v>6.888048621657599</v>
+        <v>6.888048621657598</v>
       </c>
     </row>
     <row r="8338" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>4.044614790357494</v>
+        <v>4.044614790357493</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>53.36706385607634</v>
+        <v>53.36706385607633</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>52.09572169036342</v>
+        <v>52.09572169036341</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>38.89638825113375</v>
+        <v>38.89638825113374</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>58.58988283606017</v>
+        <v>58.58988283606016</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>7.304561181803103</v>
+        <v>7.304561181803102</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67639,7 +67639,7 @@
         <v>8412</v>
       </c>
       <c r="B8412">
-        <v>5.091581768871285</v>
+        <v>5.091581768871284</v>
       </c>
     </row>
     <row r="8413" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>4.872892159822189</v>
+        <v>4.872892159822188</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>9.739864284663421</v>
+        <v>9.739864284663415</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>63.07650736692671</v>
+        <v>63.0765073669267</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>5.811188397200351</v>
+        <v>5.81118839720035</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67887,7 +67887,7 @@
         <v>8443</v>
       </c>
       <c r="B8443">
-        <v>61.07659059910169</v>
+        <v>61.07659059910168</v>
       </c>
     </row>
     <row r="8444" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>54.21315994469164</v>
+        <v>54.21315994469163</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67935,7 +67935,7 @@
         <v>8449</v>
       </c>
       <c r="B8449">
-        <v>54.85996772701723</v>
+        <v>54.85996772701722</v>
       </c>
     </row>
     <row r="8450" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>59.31875050921094</v>
+        <v>59.31875050921093</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>8.855932724956935</v>
+        <v>8.855932724956933</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>4.140390405792022</v>
+        <v>4.140390405792021</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68311,7 +68311,7 @@
         <v>8496</v>
       </c>
       <c r="B8496">
-        <v>20.52484920029706</v>
+        <v>20.52484920029705</v>
       </c>
     </row>
     <row r="8497" spans="1:2">
@@ -68343,7 +68343,7 @@
         <v>8500</v>
       </c>
       <c r="B8500">
-        <v>34.10409062694343</v>
+        <v>34.10409062694342</v>
       </c>
     </row>
     <row r="8501" spans="1:2">
@@ -68591,7 +68591,7 @@
         <v>8531</v>
       </c>
       <c r="B8531">
-        <v>0.8847550893251219</v>
+        <v>0.8847550893251218</v>
       </c>
     </row>
     <row r="8532" spans="1:2">
@@ -68687,7 +68687,7 @@
         <v>8543</v>
       </c>
       <c r="B8543">
-        <v>68.72603777920146</v>
+        <v>68.72603777920145</v>
       </c>
     </row>
     <row r="8544" spans="1:2">
@@ -68703,7 +68703,7 @@
         <v>8545</v>
       </c>
       <c r="B8545">
-        <v>85.73939771556988</v>
+        <v>85.73939771556986</v>
       </c>
     </row>
     <row r="8546" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>97.30251554595326</v>
+        <v>97.30251554595324</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>96.6501394138931</v>
+        <v>96.65013941389309</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>94.0139654211343</v>
+        <v>94.01396542113427</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68975,7 +68975,7 @@
         <v>8579</v>
       </c>
       <c r="B8579">
-        <v>54.0118201411313</v>
+        <v>54.01182014113129</v>
       </c>
     </row>
     <row r="8580" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>59.36710723059006</v>
+        <v>59.36710723059005</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>48.52934022089351</v>
+        <v>48.5293402208935</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>19.33339819972323</v>
+        <v>19.33339819972322</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>95.73810234157899</v>
+        <v>95.73810234157898</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69375,7 +69375,7 @@
         <v>8629</v>
       </c>
       <c r="B8629">
-        <v>44.05268010534146</v>
+        <v>44.05268010534145</v>
       </c>
     </row>
     <row r="8630" spans="1:2">
@@ -69479,7 +69479,7 @@
         <v>8642</v>
       </c>
       <c r="B8642">
-        <v>90.4036232958652</v>
+        <v>90.40362329586516</v>
       </c>
     </row>
     <row r="8643" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>25.52256031548512</v>
+        <v>25.52256031548511</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>58.56966093439254</v>
+        <v>58.56966093439253</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69655,7 +69655,7 @@
         <v>8664</v>
       </c>
       <c r="B8664">
-        <v>64.6467819920742</v>
+        <v>64.64678199207418</v>
       </c>
     </row>
     <row r="8665" spans="1:2">
@@ -69767,7 +69767,7 @@
         <v>8678</v>
       </c>
       <c r="B8678">
-        <v>26.99225296016403</v>
+        <v>26.99225296016402</v>
       </c>
     </row>
     <row r="8679" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>84.7505760311265</v>
+        <v>84.75057603112649</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>52.2437225648874</v>
+        <v>52.24372256488739</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>63.04807947617656</v>
+        <v>63.04807947617655</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70023,7 +70023,7 @@
         <v>8710</v>
       </c>
       <c r="B8710">
-        <v>60.03442998562194</v>
+        <v>60.03442998562193</v>
       </c>
     </row>
     <row r="8711" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>59.57577381011694</v>
+        <v>59.57577381011693</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>66.44301438802958</v>
+        <v>66.44301438802957</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>68.92151616198858</v>
+        <v>68.92151616198856</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>88.55639653918273</v>
+        <v>88.55639653918271</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>97.371973382116</v>
+        <v>97.37197338211598</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
